--- a/data/pca/factorExposure/factorExposure_2010-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-20.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003727283665807941</v>
+        <v>0.01717100056264045</v>
       </c>
       <c r="C2">
-        <v>0.01745046644430749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.00110690159354683</v>
+      </c>
+      <c r="D2">
+        <v>0.005989518272917</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002696445225194715</v>
+      </c>
+      <c r="F2">
+        <v>-0.01040030269836407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02628693029064945</v>
+        <v>0.09450441556856998</v>
       </c>
       <c r="C4">
-        <v>0.1258569377840493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01609615511546744</v>
+      </c>
+      <c r="D4">
+        <v>0.08183759083720668</v>
+      </c>
+      <c r="E4">
+        <v>0.02856521982308252</v>
+      </c>
+      <c r="F4">
+        <v>0.03050925976100094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03471336138941754</v>
+        <v>0.1570560864862038</v>
       </c>
       <c r="C6">
-        <v>0.1099553677824892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02546986651270322</v>
+      </c>
+      <c r="D6">
+        <v>-0.02419440857584701</v>
+      </c>
+      <c r="E6">
+        <v>0.00869708137314611</v>
+      </c>
+      <c r="F6">
+        <v>0.04626097918410898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008019878440138906</v>
+        <v>0.06041242549911917</v>
       </c>
       <c r="C7">
-        <v>0.07222040708263514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0007225473590633645</v>
+      </c>
+      <c r="D7">
+        <v>0.05195086276568461</v>
+      </c>
+      <c r="E7">
+        <v>0.01043271406506905</v>
+      </c>
+      <c r="F7">
+        <v>0.04319418987773988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003258951351387119</v>
+        <v>0.05834086133078603</v>
       </c>
       <c r="C8">
-        <v>0.06213545994733393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01327425377368084</v>
+      </c>
+      <c r="D8">
+        <v>0.0320713619878769</v>
+      </c>
+      <c r="E8">
+        <v>0.01733635176079928</v>
+      </c>
+      <c r="F8">
+        <v>-0.02757944715752178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02253589375695469</v>
+        <v>0.07210586049460642</v>
       </c>
       <c r="C9">
-        <v>0.1008308568906836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01186977663947977</v>
+      </c>
+      <c r="D9">
+        <v>0.08398118678536159</v>
+      </c>
+      <c r="E9">
+        <v>0.02333610651162443</v>
+      </c>
+      <c r="F9">
+        <v>0.04660413912002804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.007897564751336574</v>
+        <v>0.09289081252585267</v>
       </c>
       <c r="C10">
-        <v>0.02027145715975374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01876934183047918</v>
+      </c>
+      <c r="D10">
+        <v>-0.1701631778866748</v>
+      </c>
+      <c r="E10">
+        <v>-0.0374311364412046</v>
+      </c>
+      <c r="F10">
+        <v>-0.05592440500498876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02605710180658173</v>
+        <v>0.0879517976227</v>
       </c>
       <c r="C11">
-        <v>0.1098237782022839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0114856033251871</v>
+      </c>
+      <c r="D11">
+        <v>0.115852996079859</v>
+      </c>
+      <c r="E11">
+        <v>0.04729887298713096</v>
+      </c>
+      <c r="F11">
+        <v>0.02025336048928248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02318466180615443</v>
+        <v>0.09269346798337676</v>
       </c>
       <c r="C12">
-        <v>0.1188178763455147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008926904641861346</v>
+      </c>
+      <c r="D12">
+        <v>0.1285162878255065</v>
+      </c>
+      <c r="E12">
+        <v>0.04675191641249993</v>
+      </c>
+      <c r="F12">
+        <v>0.02358572739971736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.007054765338789637</v>
+        <v>0.04313297812870694</v>
       </c>
       <c r="C13">
-        <v>0.0373981958617524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003766073757266848</v>
+      </c>
+      <c r="D13">
+        <v>0.04974336679441144</v>
+      </c>
+      <c r="E13">
+        <v>-0.01007105219787534</v>
+      </c>
+      <c r="F13">
+        <v>0.00235233651819563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01534534252664</v>
+        <v>0.02273637004203765</v>
       </c>
       <c r="C14">
-        <v>0.02525734106420418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01410122213757867</v>
+      </c>
+      <c r="D14">
+        <v>0.03355822999961487</v>
+      </c>
+      <c r="E14">
+        <v>0.01742608802259915</v>
+      </c>
+      <c r="F14">
+        <v>0.01423839537015504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01004568204319089</v>
+        <v>0.03148955998750202</v>
       </c>
       <c r="C15">
-        <v>0.02857997740450686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005155670619806342</v>
+      </c>
+      <c r="D15">
+        <v>0.04505850616310177</v>
+      </c>
+      <c r="E15">
+        <v>0.006786828381464199</v>
+      </c>
+      <c r="F15">
+        <v>0.0220372015224118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01536307136098235</v>
+        <v>0.07332226032136614</v>
       </c>
       <c r="C16">
-        <v>0.1138473517803478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002350083931041087</v>
+      </c>
+      <c r="D16">
+        <v>0.1260493837823015</v>
+      </c>
+      <c r="E16">
+        <v>0.06236136134376297</v>
+      </c>
+      <c r="F16">
+        <v>0.02355196230376938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02767877555573365</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003397084068825354</v>
+      </c>
+      <c r="D18">
+        <v>0.02121496417219994</v>
+      </c>
+      <c r="E18">
+        <v>-0.006373979772692518</v>
+      </c>
+      <c r="F18">
+        <v>-0.008201520791441336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0100570014461255</v>
+        <v>0.06067273406300407</v>
       </c>
       <c r="C20">
-        <v>0.06965419329335819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0007426040989409034</v>
+      </c>
+      <c r="D20">
+        <v>0.07681980160271754</v>
+      </c>
+      <c r="E20">
+        <v>0.05623958242875427</v>
+      </c>
+      <c r="F20">
+        <v>0.0220932796020129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01134790641968402</v>
+        <v>0.03935277630412289</v>
       </c>
       <c r="C21">
-        <v>0.01897822138639458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006555109538421555</v>
+      </c>
+      <c r="D21">
+        <v>0.03686691003306641</v>
+      </c>
+      <c r="E21">
+        <v>-0.005746732769275395</v>
+      </c>
+      <c r="F21">
+        <v>-0.0267040899432766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003692036536948833</v>
+        <v>0.04428178038337174</v>
       </c>
       <c r="C22">
-        <v>0.0277036848866429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0008864053332873189</v>
+      </c>
+      <c r="D22">
+        <v>0.002076627885047763</v>
+      </c>
+      <c r="E22">
+        <v>0.02837310367965044</v>
+      </c>
+      <c r="F22">
+        <v>-0.03231828281057736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003681416895997936</v>
+        <v>0.04426677527616098</v>
       </c>
       <c r="C23">
-        <v>0.02763380736868255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.000882123274873613</v>
+      </c>
+      <c r="D23">
+        <v>0.002081709737384292</v>
+      </c>
+      <c r="E23">
+        <v>0.02857510973353028</v>
+      </c>
+      <c r="F23">
+        <v>-0.03228305650638897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01545501713373867</v>
+        <v>0.07999743060313755</v>
       </c>
       <c r="C24">
-        <v>0.1151737851345479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.003110285934098339</v>
+      </c>
+      <c r="D24">
+        <v>0.1196707971808263</v>
+      </c>
+      <c r="E24">
+        <v>0.05047323894832217</v>
+      </c>
+      <c r="F24">
+        <v>0.02431002870602003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02083729948788745</v>
+        <v>0.08508115826051869</v>
       </c>
       <c r="C25">
-        <v>0.1201657760194118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005293983533218035</v>
+      </c>
+      <c r="D25">
+        <v>0.1086087576594402</v>
+      </c>
+      <c r="E25">
+        <v>0.03338219821838389</v>
+      </c>
+      <c r="F25">
+        <v>0.02554678959056994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0215948467013312</v>
+        <v>0.05718505396164459</v>
       </c>
       <c r="C26">
-        <v>0.05000230227364329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0146355142789728</v>
+      </c>
+      <c r="D26">
+        <v>0.04137185023548843</v>
+      </c>
+      <c r="E26">
+        <v>0.02823058460227422</v>
+      </c>
+      <c r="F26">
+        <v>-0.01117933553644388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.001817432586483776</v>
+        <v>0.1405052703079007</v>
       </c>
       <c r="C28">
-        <v>0.01709656665458307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01835601280933124</v>
+      </c>
+      <c r="D28">
+        <v>-0.2649797994519988</v>
+      </c>
+      <c r="E28">
+        <v>-0.06938117131538353</v>
+      </c>
+      <c r="F28">
+        <v>0.006440420756643703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01210957751571448</v>
+        <v>0.0270966609555829</v>
       </c>
       <c r="C29">
-        <v>0.03137413857138498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008277287819256634</v>
+      </c>
+      <c r="D29">
+        <v>0.03293856186250459</v>
+      </c>
+      <c r="E29">
+        <v>0.01155409798887141</v>
+      </c>
+      <c r="F29">
+        <v>-0.01074976419015262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01380220089323254</v>
+        <v>0.06241530326850033</v>
       </c>
       <c r="C30">
-        <v>0.1285597551585291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004627976293011367</v>
+      </c>
+      <c r="D30">
+        <v>0.08657369638997679</v>
+      </c>
+      <c r="E30">
+        <v>0.02068736880798809</v>
+      </c>
+      <c r="F30">
+        <v>0.08116199366777589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02139470015788036</v>
+        <v>0.04938232970727273</v>
       </c>
       <c r="C31">
-        <v>0.03690358771417442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01542191095434401</v>
+      </c>
+      <c r="D31">
+        <v>0.02461539280727946</v>
+      </c>
+      <c r="E31">
+        <v>0.02724448287783413</v>
+      </c>
+      <c r="F31">
+        <v>-0.003121985848120618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006041802269543424</v>
+        <v>0.04926546437117097</v>
       </c>
       <c r="C32">
-        <v>0.06060505215012956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001217809482516556</v>
+      </c>
+      <c r="D32">
+        <v>0.03665597337166159</v>
+      </c>
+      <c r="E32">
+        <v>0.03145669131302306</v>
+      </c>
+      <c r="F32">
+        <v>0.0006392060456562665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02073176128401006</v>
+        <v>0.09009474610650722</v>
       </c>
       <c r="C33">
-        <v>0.1193234950304806</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008776092385982323</v>
+      </c>
+      <c r="D33">
+        <v>0.09754562223153657</v>
+      </c>
+      <c r="E33">
+        <v>0.04483864367428251</v>
+      </c>
+      <c r="F33">
+        <v>0.03362149014504193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02335582107275475</v>
+        <v>0.06809428100040457</v>
       </c>
       <c r="C34">
-        <v>0.1019028756610628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01175230477450785</v>
+      </c>
+      <c r="D34">
+        <v>0.1054755781461771</v>
+      </c>
+      <c r="E34">
+        <v>0.03497017856515547</v>
+      </c>
+      <c r="F34">
+        <v>0.03238915343056856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002759951762893365</v>
+        <v>0.02358014709424506</v>
       </c>
       <c r="C35">
-        <v>0.01226199431813952</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002504439775673108</v>
+      </c>
+      <c r="D35">
+        <v>0.01187765138891943</v>
+      </c>
+      <c r="E35">
+        <v>0.01136055541699063</v>
+      </c>
+      <c r="F35">
+        <v>0.0008643893501624735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.009830028228618552</v>
+        <v>0.02580255204536216</v>
       </c>
       <c r="C36">
-        <v>0.03005981360646887</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007239009061843685</v>
+      </c>
+      <c r="D36">
+        <v>0.03993420115260813</v>
+      </c>
+      <c r="E36">
+        <v>0.01587726808125236</v>
+      </c>
+      <c r="F36">
+        <v>0.01425984718605132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-8.404563721033967e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-4.312295863236165e-05</v>
+      </c>
+      <c r="D37">
+        <v>-0.0003267768297984304</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001308848611139641</v>
+      </c>
+      <c r="F37">
+        <v>0.000108110857327898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005531542134370652</v>
+        <v>0.001345130384333583</v>
       </c>
       <c r="C38">
-        <v>0.004571485624049261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002034895340164105</v>
+      </c>
+      <c r="D38">
+        <v>0.0006725936521648429</v>
+      </c>
+      <c r="E38">
+        <v>0.0009608360850637198</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005409779472763004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03684883025305347</v>
+        <v>0.107382061986653</v>
       </c>
       <c r="C39">
-        <v>0.1762512096936923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01700578174641808</v>
+      </c>
+      <c r="D39">
+        <v>0.1523707313192449</v>
+      </c>
+      <c r="E39">
+        <v>0.05969549945272922</v>
+      </c>
+      <c r="F39">
+        <v>0.0286763637632207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009266266724003941</v>
+        <v>0.03966691045077687</v>
       </c>
       <c r="C40">
-        <v>0.01039602229062645</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007478258007693147</v>
+      </c>
+      <c r="D40">
+        <v>0.03211626668946349</v>
+      </c>
+      <c r="E40">
+        <v>0.002882907698765244</v>
+      </c>
+      <c r="F40">
+        <v>-0.01825362549154618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01114972901198928</v>
+        <v>0.0264163760784356</v>
       </c>
       <c r="C41">
-        <v>0.02246591331164603</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006557883396773932</v>
+      </c>
+      <c r="D41">
+        <v>0.01144436125254671</v>
+      </c>
+      <c r="E41">
+        <v>0.01257753030340649</v>
+      </c>
+      <c r="F41">
+        <v>-0.006908424495142259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01158059585687423</v>
+        <v>0.03990139172294968</v>
       </c>
       <c r="C43">
-        <v>0.02504935677304936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006792586713744974</v>
+      </c>
+      <c r="D43">
+        <v>0.02103955708353236</v>
+      </c>
+      <c r="E43">
+        <v>0.02524325376504969</v>
+      </c>
+      <c r="F43">
+        <v>-0.01247425037028677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02952729428444164</v>
+        <v>0.07786866148416392</v>
       </c>
       <c r="C44">
-        <v>0.1366649634977165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02116937573755229</v>
+      </c>
+      <c r="D44">
+        <v>0.09766184884748122</v>
+      </c>
+      <c r="E44">
+        <v>0.06648853013246674</v>
+      </c>
+      <c r="F44">
+        <v>0.1511183341106249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005762175225981965</v>
+        <v>0.0242946887265432</v>
       </c>
       <c r="C46">
-        <v>0.008360284363491913</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003660399816450534</v>
+      </c>
+      <c r="D46">
+        <v>0.01309557715132784</v>
+      </c>
+      <c r="E46">
+        <v>0.02239746258010707</v>
+      </c>
+      <c r="F46">
+        <v>-0.003022866687386059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01172055361743444</v>
+        <v>0.05058139641866295</v>
       </c>
       <c r="C47">
-        <v>0.04241225519088032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003683307198818648</v>
+      </c>
+      <c r="D47">
+        <v>0.01227940876784996</v>
+      </c>
+      <c r="E47">
+        <v>0.0228112444735112</v>
+      </c>
+      <c r="F47">
+        <v>-0.03338614138568259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01116724106611033</v>
+        <v>0.04855513230967806</v>
       </c>
       <c r="C48">
-        <v>0.04783359355318433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002630514880951235</v>
+      </c>
+      <c r="D48">
+        <v>0.05056268112502117</v>
+      </c>
+      <c r="E48">
+        <v>-0.006456903131061101</v>
+      </c>
+      <c r="F48">
+        <v>0.008488487075497679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03152933279846317</v>
+        <v>0.2007834046952239</v>
       </c>
       <c r="C49">
-        <v>0.2008171870604792</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01874228883821928</v>
+      </c>
+      <c r="D49">
+        <v>-0.01138050370271664</v>
+      </c>
+      <c r="E49">
+        <v>0.02994622848819729</v>
+      </c>
+      <c r="F49">
+        <v>0.0394167905565863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01771584738513099</v>
+        <v>0.0495073795557872</v>
       </c>
       <c r="C50">
-        <v>0.04321686691550308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01146038167616851</v>
+      </c>
+      <c r="D50">
+        <v>0.02391319782416439</v>
+      </c>
+      <c r="E50">
+        <v>0.02954987324512014</v>
+      </c>
+      <c r="F50">
+        <v>0.007422645969196175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004694913265283577</v>
+        <v>0.001183866357438294</v>
       </c>
       <c r="C51">
-        <v>0.003542633742431269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0003295518214875085</v>
+      </c>
+      <c r="D51">
+        <v>-0.001042960720209362</v>
+      </c>
+      <c r="E51">
+        <v>0.0001021419438422978</v>
+      </c>
+      <c r="F51">
+        <v>0.003324242832410119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02642733655229282</v>
+        <v>0.1467736743205212</v>
       </c>
       <c r="C52">
-        <v>0.1487336925883026</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01523227131972925</v>
+      </c>
+      <c r="D52">
+        <v>0.04590327892293529</v>
+      </c>
+      <c r="E52">
+        <v>0.02090875391750108</v>
+      </c>
+      <c r="F52">
+        <v>0.04467359086509852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02427137221243725</v>
+        <v>0.1740905115390353</v>
       </c>
       <c r="C53">
-        <v>0.1601192841160087</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01856831084385602</v>
+      </c>
+      <c r="D53">
+        <v>0.004677717571282357</v>
+      </c>
+      <c r="E53">
+        <v>0.03134719865377791</v>
+      </c>
+      <c r="F53">
+        <v>0.0762725428687708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01435989733435027</v>
+        <v>0.02157882608177172</v>
       </c>
       <c r="C54">
-        <v>0.04785706952569443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01245929445904864</v>
+      </c>
+      <c r="D54">
+        <v>0.03292034859486138</v>
+      </c>
+      <c r="E54">
+        <v>0.01699121202317934</v>
+      </c>
+      <c r="F54">
+        <v>-0.003495829841672611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0221639869864831</v>
+        <v>0.1143884767754513</v>
       </c>
       <c r="C55">
-        <v>0.08889324808497509</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01650029580292602</v>
+      </c>
+      <c r="D55">
+        <v>0.009041093520795322</v>
+      </c>
+      <c r="E55">
+        <v>0.02804645287968062</v>
+      </c>
+      <c r="F55">
+        <v>0.04909321156765883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02770363788266819</v>
+        <v>0.1786811610416128</v>
       </c>
       <c r="C56">
-        <v>0.1624994686379508</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01594536265300832</v>
+      </c>
+      <c r="D56">
+        <v>0.0009644701378886924</v>
+      </c>
+      <c r="E56">
+        <v>0.0366411289443231</v>
+      </c>
+      <c r="F56">
+        <v>0.05501934506094747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009519886961235752</v>
+        <v>0.0459469808463043</v>
       </c>
       <c r="C58">
-        <v>0.0451734570142934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001410539170499233</v>
+      </c>
+      <c r="D58">
+        <v>0.06631945462544028</v>
+      </c>
+      <c r="E58">
+        <v>0.02698019662981649</v>
+      </c>
+      <c r="F58">
+        <v>-0.03888985718123073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009096577846671216</v>
+        <v>0.1691696853250987</v>
       </c>
       <c r="C59">
-        <v>0.07284173502428788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01902710037244544</v>
+      </c>
+      <c r="D59">
+        <v>-0.2219816130750613</v>
+      </c>
+      <c r="E59">
+        <v>-0.04572928455173924</v>
+      </c>
+      <c r="F59">
+        <v>-0.03341078213403772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01885745342328811</v>
+        <v>0.2342824557700396</v>
       </c>
       <c r="C60">
-        <v>0.2834175292094143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.00273982203731406</v>
+      </c>
+      <c r="D60">
+        <v>0.04018311386732113</v>
+      </c>
+      <c r="E60">
+        <v>0.01125113597454499</v>
+      </c>
+      <c r="F60">
+        <v>-0.001277933995914254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0268582135141124</v>
+        <v>0.08344091414396723</v>
       </c>
       <c r="C61">
-        <v>0.1337772745783544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01271198489276791</v>
+      </c>
+      <c r="D61">
+        <v>0.1159497651693249</v>
+      </c>
+      <c r="E61">
+        <v>0.03974505476333439</v>
+      </c>
+      <c r="F61">
+        <v>0.0122615938408172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03154972429920568</v>
+        <v>0.1704000180579995</v>
       </c>
       <c r="C62">
-        <v>0.1677615245329159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01954456441687192</v>
+      </c>
+      <c r="D62">
+        <v>0.006257425503680683</v>
+      </c>
+      <c r="E62">
+        <v>0.03537162986337158</v>
+      </c>
+      <c r="F62">
+        <v>0.03669348816855664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01046634789823854</v>
+        <v>0.04387198554199917</v>
       </c>
       <c r="C63">
-        <v>0.05655132027234506</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002322948991123823</v>
+      </c>
+      <c r="D63">
+        <v>0.05869197483405374</v>
+      </c>
+      <c r="E63">
+        <v>0.0206149254088013</v>
+      </c>
+      <c r="F63">
+        <v>0.004435765258262185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02106759259037142</v>
+        <v>0.1106234142314448</v>
       </c>
       <c r="C64">
-        <v>0.1019666977361397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01175344306465112</v>
+      </c>
+      <c r="D64">
+        <v>0.04183360927535244</v>
+      </c>
+      <c r="E64">
+        <v>0.02309730070313</v>
+      </c>
+      <c r="F64">
+        <v>0.02598350357274659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03654939974396874</v>
+        <v>0.1465175867951786</v>
       </c>
       <c r="C65">
-        <v>0.1095714134538706</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0323326155298093</v>
+      </c>
+      <c r="D65">
+        <v>-0.04295470694928272</v>
+      </c>
+      <c r="E65">
+        <v>0.002569556301081714</v>
+      </c>
+      <c r="F65">
+        <v>0.03760407236935157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03424379973217723</v>
+        <v>0.1277754990195211</v>
       </c>
       <c r="C66">
-        <v>0.2070346884181765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01506464045264167</v>
+      </c>
+      <c r="D66">
+        <v>0.1406476348652227</v>
+      </c>
+      <c r="E66">
+        <v>0.06761287282990532</v>
+      </c>
+      <c r="F66">
+        <v>0.03183093855867446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01395896629991243</v>
+        <v>0.06305291549080508</v>
       </c>
       <c r="C67">
-        <v>0.06579033414496525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003294433584864819</v>
+      </c>
+      <c r="D67">
+        <v>0.05452712004428692</v>
+      </c>
+      <c r="E67">
+        <v>0.01774076666026824</v>
+      </c>
+      <c r="F67">
+        <v>-0.03211192775409997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.0124595843342682</v>
+        <v>0.1155805335694091</v>
       </c>
       <c r="C68">
-        <v>0.01762533735097833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0282409714612529</v>
+      </c>
+      <c r="D68">
+        <v>-0.2601131975978404</v>
+      </c>
+      <c r="E68">
+        <v>-0.08729571405593183</v>
+      </c>
+      <c r="F68">
+        <v>0.003920474313590751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005379876475160847</v>
+        <v>0.03955988208905584</v>
       </c>
       <c r="C69">
-        <v>0.03523410857343767</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001262701615776097</v>
+      </c>
+      <c r="D69">
+        <v>0.007400321659459062</v>
+      </c>
+      <c r="E69">
+        <v>0.02337449351556358</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007129308191846131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002454407845926486</v>
+        <v>0.06337860351023684</v>
       </c>
       <c r="C70">
-        <v>0.03531480730154647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02828200858772567</v>
+      </c>
+      <c r="D70">
+        <v>0.02700940738752425</v>
+      </c>
+      <c r="E70">
+        <v>-0.04205696518436236</v>
+      </c>
+      <c r="F70">
+        <v>-0.1867612722396373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01682961675662702</v>
+        <v>0.1347935273230904</v>
       </c>
       <c r="C71">
-        <v>0.02010343204357898</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03314616884612433</v>
+      </c>
+      <c r="D71">
+        <v>-0.2742091367970854</v>
+      </c>
+      <c r="E71">
+        <v>-0.09698542030633416</v>
+      </c>
+      <c r="F71">
+        <v>0.01043478751202827</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03242390492588466</v>
+        <v>0.1409547782035542</v>
       </c>
       <c r="C72">
-        <v>0.1174967882994644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02590342183329145</v>
+      </c>
+      <c r="D72">
+        <v>-0.0001298243935820282</v>
+      </c>
+      <c r="E72">
+        <v>0.03994395240308047</v>
+      </c>
+      <c r="F72">
+        <v>0.03684042844335475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.02994070991637373</v>
+        <v>0.2010753063429948</v>
       </c>
       <c r="C73">
-        <v>0.2073451619435537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01308408682573483</v>
+      </c>
+      <c r="D73">
+        <v>0.01403792646379938</v>
+      </c>
+      <c r="E73">
+        <v>0.06425849953114872</v>
+      </c>
+      <c r="F73">
+        <v>0.03989901401261722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01736836824175155</v>
+        <v>0.09478367195646802</v>
       </c>
       <c r="C74">
-        <v>0.1153814634014382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01314706315004917</v>
+      </c>
+      <c r="D74">
+        <v>0.01773261192605548</v>
+      </c>
+      <c r="E74">
+        <v>0.04456853056601353</v>
+      </c>
+      <c r="F74">
+        <v>0.05770107375207052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03694625632958453</v>
+        <v>0.1289192815979135</v>
       </c>
       <c r="C75">
-        <v>0.1369661384867568</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02769741250791073</v>
+      </c>
+      <c r="D75">
+        <v>0.0299647752765547</v>
+      </c>
+      <c r="E75">
+        <v>0.05881923692387821</v>
+      </c>
+      <c r="F75">
+        <v>0.0198659602735747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003828220835359908</v>
+        <v>0.001266863392137997</v>
       </c>
       <c r="C76">
-        <v>0.0044506791519592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003401323243361835</v>
+      </c>
+      <c r="D76">
+        <v>-0.001128507662074147</v>
+      </c>
+      <c r="E76">
+        <v>0.0001730155293941142</v>
+      </c>
+      <c r="F76">
+        <v>0.001600623411953814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02093672782359981</v>
+        <v>0.08141134564694909</v>
       </c>
       <c r="C77">
-        <v>0.1094344481834245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008592496264333505</v>
+      </c>
+      <c r="D77">
+        <v>0.1176356559019476</v>
+      </c>
+      <c r="E77">
+        <v>0.04050802550048294</v>
+      </c>
+      <c r="F77">
+        <v>0.02716438615121182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04710591249891814</v>
+        <v>0.1011823801255134</v>
       </c>
       <c r="C78">
-        <v>0.1239921893536856</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03967542366576728</v>
+      </c>
+      <c r="D78">
+        <v>0.1161785566242756</v>
+      </c>
+      <c r="E78">
+        <v>0.07813716773336023</v>
+      </c>
+      <c r="F78">
+        <v>0.04594546913908103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03125206158190648</v>
+        <v>0.1647721315357956</v>
       </c>
       <c r="C79">
-        <v>0.1464863665288691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02200919732225098</v>
+      </c>
+      <c r="D79">
+        <v>0.015896277704901</v>
+      </c>
+      <c r="E79">
+        <v>0.04738168210331604</v>
+      </c>
+      <c r="F79">
+        <v>0.01458536746618035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004103409493520294</v>
+        <v>0.08182763238158221</v>
       </c>
       <c r="C80">
-        <v>0.0949632996609639</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0004164490932487601</v>
+      </c>
+      <c r="D80">
+        <v>0.05735438718698076</v>
+      </c>
+      <c r="E80">
+        <v>0.03606126406442281</v>
+      </c>
+      <c r="F80">
+        <v>-0.02571048314135947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03847770247690339</v>
+        <v>0.1228302247803744</v>
       </c>
       <c r="C81">
-        <v>0.1504045909560579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03143554928240914</v>
+      </c>
+      <c r="D81">
+        <v>0.01528139333403075</v>
+      </c>
+      <c r="E81">
+        <v>0.05893254189598564</v>
+      </c>
+      <c r="F81">
+        <v>0.01872202549565445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03261394914485791</v>
+        <v>0.16568340644648</v>
       </c>
       <c r="C82">
-        <v>0.1659825059026652</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02416614425258395</v>
+      </c>
+      <c r="D82">
+        <v>0.003911257013723022</v>
+      </c>
+      <c r="E82">
+        <v>0.02836985768085952</v>
+      </c>
+      <c r="F82">
+        <v>0.08032961040058494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01613733230028583</v>
+        <v>0.06162763272794072</v>
       </c>
       <c r="C83">
-        <v>0.07654371609876028</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003368310903257927</v>
+      </c>
+      <c r="D83">
+        <v>0.04961013878542282</v>
+      </c>
+      <c r="E83">
+        <v>0.006111447094607818</v>
+      </c>
+      <c r="F83">
+        <v>-0.03265327773621975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02444674340254292</v>
+        <v>0.0587240158186797</v>
       </c>
       <c r="C84">
-        <v>0.07667734181105738</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01119824603140107</v>
+      </c>
+      <c r="D84">
+        <v>0.06460093191640369</v>
+      </c>
+      <c r="E84">
+        <v>0.00718567676304227</v>
+      </c>
+      <c r="F84">
+        <v>0.005333125820810162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03357424349742022</v>
+        <v>0.1378730771976031</v>
       </c>
       <c r="C85">
-        <v>0.1218531909459967</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02750610289011011</v>
+      </c>
+      <c r="D85">
+        <v>0.0105909414224702</v>
+      </c>
+      <c r="E85">
+        <v>0.03941406905926806</v>
+      </c>
+      <c r="F85">
+        <v>0.04751620716986613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.005073006374855811</v>
+        <v>0.09636217184380252</v>
       </c>
       <c r="C86">
-        <v>0.1068331384087198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006764612482043968</v>
+      </c>
+      <c r="D86">
+        <v>0.04146281584062724</v>
+      </c>
+      <c r="E86">
+        <v>0.2116938217894814</v>
+      </c>
+      <c r="F86">
+        <v>-0.9088776829980102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03717713975119016</v>
+        <v>0.09679415242285222</v>
       </c>
       <c r="C87">
-        <v>0.1122091104879316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02124144853213579</v>
+      </c>
+      <c r="D87">
+        <v>0.09402128294179218</v>
+      </c>
+      <c r="E87">
+        <v>-0.05237698488900416</v>
+      </c>
+      <c r="F87">
+        <v>0.04915339411219007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01158584028439337</v>
+        <v>0.06101311418632729</v>
       </c>
       <c r="C88">
-        <v>0.05851990789881357</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002606554574534127</v>
+      </c>
+      <c r="D88">
+        <v>0.04997103124090613</v>
+      </c>
+      <c r="E88">
+        <v>0.02499631036188348</v>
+      </c>
+      <c r="F88">
+        <v>0.01342067029091891</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0008144209589000227</v>
+        <v>0.1321721752350561</v>
       </c>
       <c r="C89">
-        <v>0.03858324423161968</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01039641834680267</v>
+      </c>
+      <c r="D89">
+        <v>-0.2508797008029179</v>
+      </c>
+      <c r="E89">
+        <v>-0.09053705864600026</v>
+      </c>
+      <c r="F89">
+        <v>-0.006185841172828853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01727243852268956</v>
+        <v>0.1470785047706338</v>
       </c>
       <c r="C90">
-        <v>0.02416654223641182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02889048106000367</v>
+      </c>
+      <c r="D90">
+        <v>-0.2666764905615663</v>
+      </c>
+      <c r="E90">
+        <v>-0.1114582876671853</v>
+      </c>
+      <c r="F90">
+        <v>-0.004441981124586261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01899642488129969</v>
+        <v>0.1197161295221304</v>
       </c>
       <c r="C91">
-        <v>0.09270137821414463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01824785410758196</v>
+      </c>
+      <c r="D91">
+        <v>-0.01229863966970947</v>
+      </c>
+      <c r="E91">
+        <v>0.05716877532967181</v>
+      </c>
+      <c r="F91">
+        <v>-0.001032695736807039</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.0001983731308333745</v>
+        <v>0.145959687953068</v>
       </c>
       <c r="C92">
-        <v>0.03578455915975916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02105091115055783</v>
+      </c>
+      <c r="D92">
+        <v>-0.2919562525566516</v>
+      </c>
+      <c r="E92">
+        <v>-0.1022621645732534</v>
+      </c>
+      <c r="F92">
+        <v>-0.01608211239157543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01142561643011298</v>
+        <v>0.15008427308987</v>
       </c>
       <c r="C93">
-        <v>0.02663432369898247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02504631044471963</v>
+      </c>
+      <c r="D93">
+        <v>-0.2677022427501301</v>
+      </c>
+      <c r="E93">
+        <v>-0.07864502422624807</v>
+      </c>
+      <c r="F93">
+        <v>0.002232994464327257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.0355826746561449</v>
+        <v>0.1316104432093775</v>
       </c>
       <c r="C94">
-        <v>0.1606326680265814</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0246768477789001</v>
+      </c>
+      <c r="D94">
+        <v>0.04282969823082985</v>
+      </c>
+      <c r="E94">
+        <v>0.05834876454100666</v>
+      </c>
+      <c r="F94">
+        <v>0.03758041191984674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02169099758584007</v>
+        <v>0.1253504354707041</v>
       </c>
       <c r="C95">
-        <v>0.1445777905195372</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004702397615728896</v>
+      </c>
+      <c r="D95">
+        <v>0.09025954717956534</v>
+      </c>
+      <c r="E95">
+        <v>0.04624156851280716</v>
+      </c>
+      <c r="F95">
+        <v>-0.01045111579081634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9812698435291297</v>
+        <v>0.10452634562005</v>
       </c>
       <c r="C96">
-        <v>0.1708007689045521</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9880162132245641</v>
+      </c>
+      <c r="D96">
+        <v>-0.03907008523708563</v>
+      </c>
+      <c r="E96">
+        <v>0.05641098441665436</v>
+      </c>
+      <c r="F96">
+        <v>0.04328057145487615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.0007570588100631408</v>
+        <v>0.1914240993422522</v>
       </c>
       <c r="C97">
-        <v>0.1748444952866886</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008765368390302335</v>
+      </c>
+      <c r="D97">
+        <v>-0.01554606553131298</v>
+      </c>
+      <c r="E97">
+        <v>0.01610032045119767</v>
+      </c>
+      <c r="F97">
+        <v>-0.09360601790694537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02106983974958415</v>
+        <v>0.2063329346236416</v>
       </c>
       <c r="C98">
-        <v>0.1952074755721766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007569631770050752</v>
+      </c>
+      <c r="D98">
+        <v>0.008291409954395926</v>
+      </c>
+      <c r="E98">
+        <v>-0.08558054876477772</v>
+      </c>
+      <c r="F98">
+        <v>-0.09385747631870893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003020592782008029</v>
+        <v>0.05603697584281031</v>
       </c>
       <c r="C99">
-        <v>0.05735634540252523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004360652978836239</v>
+      </c>
+      <c r="D99">
+        <v>0.03916569758054363</v>
+      </c>
+      <c r="E99">
+        <v>0.02411399755705565</v>
+      </c>
+      <c r="F99">
+        <v>0.001133293689415759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.005831386068455807</v>
+        <v>0.1276740621843871</v>
       </c>
       <c r="C100">
-        <v>0.1443373684990947</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05253063100121475</v>
+      </c>
+      <c r="D100">
+        <v>0.3485873459689899</v>
+      </c>
+      <c r="E100">
+        <v>-0.8873640798654182</v>
+      </c>
+      <c r="F100">
+        <v>-0.1364413962678571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01213062571915051</v>
+        <v>0.02701564293107633</v>
       </c>
       <c r="C101">
-        <v>0.0313392861268769</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008284721728072321</v>
+      </c>
+      <c r="D101">
+        <v>0.03264534128876378</v>
+      </c>
+      <c r="E101">
+        <v>0.01099147932691052</v>
+      </c>
+      <c r="F101">
+        <v>-0.0119884217213022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
